--- a/Data/固定g_in/进一步寻找关系/store-2e+8-2e+5.xlsx
+++ b/Data/固定g_in/进一步寻找关系/store-2e+8-2e+5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="9852"/>
+    <workbookView windowWidth="24041" windowHeight="10130"/>
   </bookViews>
   <sheets>
     <sheet name="store-ST-dgr" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -68,6 +68,36 @@
       <color theme="1"/>
       <name val="Droid Sans Mono"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -85,27 +115,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -118,59 +131,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +153,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,14 +169,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +223,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,19 +289,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,7 +301,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,73 +349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +367,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,43 +397,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,32 +426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,8 +453,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +474,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -506,11 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,148 +519,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -677,54 +677,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -996,14 +996,14 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L170" sqref="L170"/>
+      <selection activeCell="I1" sqref="I1:L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="20.4"/>
+  <sheetFormatPr defaultColWidth="5.62765957446809" defaultRowHeight="20.65"/>
   <cols>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="9" max="11" width="13.375"/>
-    <col min="12" max="12" width="12.3125"/>
+    <col min="7" max="7" width="10.1276595744681" customWidth="1"/>
+    <col min="9" max="11" width="13.3776595744681"/>
+    <col min="12" max="12" width="12.313829787234"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7375,19 +7375,19 @@
         <v>-271.640364846911</v>
       </c>
       <c r="I164" s="2">
-        <f t="shared" ref="I164:I195" si="20">5/2*(1/C164+1/C163)*(C164-C163)</f>
+        <f t="shared" ref="I164:I201" si="20">5/2*(1/C164+1/C163)*(C164-C163)</f>
         <v>0.00129696180828216</v>
       </c>
       <c r="J164" s="2">
-        <f t="shared" ref="J164:J195" si="21">(1/B164+1/B163)*(B164-B163)</f>
+        <f t="shared" ref="J164:J201" si="21">(1/B164+1/B163)*(B164-B163)</f>
         <v>-0.000843740472610503</v>
       </c>
       <c r="K164" s="2">
-        <f t="shared" ref="K164:K195" si="22">83140000/2.4942*(I164+J164)/((E163+E164)*31560000000000)</f>
+        <f t="shared" ref="K164:K201" si="22">83140000/2.4942*(I164+J164)/((E163+E164)*31560000000000)</f>
         <v>0.00236443269346896</v>
       </c>
       <c r="L164" s="2">
-        <f t="shared" ref="L164:L195" si="23">L163+K164</f>
+        <f t="shared" ref="L164:L201" si="23">L163+K164</f>
         <v>5.36016152139634</v>
       </c>
     </row>
@@ -8623,19 +8623,19 @@
         <v>-231.573128502456</v>
       </c>
       <c r="I196" s="2">
-        <f>5/2*(1/C196+1/C195)*(C196-C195)</f>
+        <f t="shared" si="20"/>
         <v>0.000781204371181728</v>
       </c>
       <c r="J196" s="2">
-        <f>(1/B196+1/B195)*(B196-B195)</f>
+        <f t="shared" si="21"/>
         <v>-0.00205993519235918</v>
       </c>
       <c r="K196" s="2">
-        <f>83140000/2.4942*(I196+J196)/((E195+E196)*31560000000000)</f>
+        <f t="shared" si="22"/>
         <v>-0.00651115970107911</v>
       </c>
       <c r="L196" s="2">
-        <f>L195+K196</f>
+        <f t="shared" si="23"/>
         <v>5.27515240232439</v>
       </c>
     </row>
@@ -8662,19 +8662,19 @@
         <v>-230.506924504782</v>
       </c>
       <c r="I197" s="2">
-        <f>5/2*(1/C197+1/C196)*(C197-C196)</f>
+        <f t="shared" si="20"/>
         <v>0.000768433430621643</v>
       </c>
       <c r="J197" s="2">
-        <f>(1/B197+1/B196)*(B197-B196)</f>
+        <f t="shared" si="21"/>
         <v>-0.00208666427680921</v>
       </c>
       <c r="K197" s="2">
-        <f>83140000/2.4942*(I197+J197)/((E196+E197)*31560000000000)</f>
+        <f t="shared" si="22"/>
         <v>-0.00670341480974656</v>
       </c>
       <c r="L197" s="2">
-        <f>L196+K197</f>
+        <f t="shared" si="23"/>
         <v>5.26844898751464</v>
       </c>
     </row>
@@ -8701,19 +8701,19 @@
         <v>-229.450443161215</v>
       </c>
       <c r="I198" s="2">
-        <f>5/2*(1/C198+1/C197)*(C198-C197)</f>
+        <f t="shared" si="20"/>
         <v>0.000749432626041888</v>
       </c>
       <c r="J198" s="2">
-        <f>(1/B198+1/B197)*(B198-B197)</f>
+        <f t="shared" si="21"/>
         <v>-0.00211254280678982</v>
       </c>
       <c r="K198" s="2">
-        <f>83140000/2.4942*(I198+J198)/((E197+E198)*31560000000000)</f>
+        <f t="shared" si="22"/>
         <v>-0.00692227475215261</v>
       </c>
       <c r="L198" s="2">
-        <f>L197+K198</f>
+        <f t="shared" si="23"/>
         <v>5.26152671276249</v>
       </c>
     </row>
@@ -8740,19 +8740,19 @@
         <v>-228.403110769801</v>
       </c>
       <c r="I199" s="2">
-        <f>5/2*(1/C199+1/C198)*(C199-C198)</f>
+        <f t="shared" si="20"/>
         <v>0.000747281360724985</v>
       </c>
       <c r="J199" s="2">
-        <f>(1/B199+1/B198)*(B199-B198)</f>
+        <f t="shared" si="21"/>
         <v>-0.0021396505325716</v>
       </c>
       <c r="K199" s="2">
-        <f>83140000/2.4942*(I199+J199)/((E198+E199)*31560000000000)</f>
+        <f t="shared" si="22"/>
         <v>-0.0070611375348501</v>
       </c>
       <c r="L199" s="2">
-        <f>L198+K199</f>
+        <f t="shared" si="23"/>
         <v>5.25446557522764</v>
       </c>
     </row>
@@ -8779,19 +8779,19 @@
         <v>-227.364708078294</v>
       </c>
       <c r="I200" s="2">
-        <f>5/2*(1/C200+1/C199)*(C200-C199)</f>
+        <f t="shared" si="20"/>
         <v>0.000736741164983004</v>
       </c>
       <c r="J200" s="2">
-        <f>(1/B200+1/B199)*(B200-B199)</f>
+        <f t="shared" si="21"/>
         <v>-0.00216097344587484</v>
       </c>
       <c r="K200" s="2">
-        <f>83140000/2.4942*(I200+J200)/((E199+E200)*31560000000000)</f>
+        <f t="shared" si="22"/>
         <v>-0.00721258194380993</v>
       </c>
       <c r="L200" s="2">
-        <f>L199+K200</f>
+        <f t="shared" si="23"/>
         <v>5.24725299328383</v>
       </c>
     </row>
@@ -8818,19 +8818,19 @@
         <v>-226.337480762172</v>
       </c>
       <c r="I201" s="2">
-        <f>5/2*(1/C201+1/C200)*(C201-C200)</f>
+        <f t="shared" si="20"/>
         <v>0.000708076926999481</v>
       </c>
       <c r="J201" s="2">
-        <f>(1/B201+1/B200)*(B201-B200)</f>
+        <f t="shared" si="21"/>
         <v>-0.00219237232803984</v>
       </c>
       <c r="K201" s="2">
-        <f>83140000/2.4942*(I201+J201)/((E200+E201)*31560000000000)</f>
+        <f t="shared" si="22"/>
         <v>-0.00750603812212831</v>
       </c>
       <c r="L201" s="2">
-        <f>L200+K201</f>
+        <f t="shared" si="23"/>
         <v>5.2397469551617</v>
       </c>
     </row>
